--- a/biology/Zoologie/Arawacus_dolylas/Arawacus_dolylas.xlsx
+++ b/biology/Zoologie/Arawacus_dolylas/Arawacus_dolylas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arawacus dolylas est une espèce d'insectes lépidoptères de la famille des Lycaenidae, sous-famille des Theclinae et du genre Arawacus.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Arawacus dolylas a été décrit par Pieter Cramer en 1777, sous le nom initial de Papilio dolylas.
-Synonymes : Pseudolycaena spurius C. &amp; R. Felder, 1865; Thecla dolosa Staudinger, 1888; Thecla dolylas pallida Lathy, 1930; Thecla spurius ; Hewitson, 1867[1].
-Noms vernaculaires
-Arawacus dolylas se nomme Dolylas Stripestreak en anglais.
+Synonymes : Pseudolycaena spurius C. &amp; R. Felder, 1865; Thecla dolosa Staudinger, 1888; Thecla dolylas pallida Lathy, 1930; Thecla spurius ; Hewitson, 1867.
 </t>
         </is>
       </c>
@@ -542,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arawacus dolylas est un petit papillon qui possède une fine queue tordue à chaque aile postérieure. Le dessus est beige foncé avec une plage blanc nacré limitée à la partie basale aux ailes antérieures, couvrant presque la totalité des ailes postérieures.
-Le revers est rayé blanc et beige.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arawacus dolylas se nomme Dolylas Stripestreak en anglais.
 </t>
         </is>
       </c>
@@ -574,10 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arawacus dolylas est un petit papillon qui possède une fine queue tordue à chaque aile postérieure. Le dessus est beige foncé avec une plage blanc nacré limitée à la partie basale aux ailes antérieures, couvrant presque la totalité des ailes postérieures.
+Le revers est rayé blanc et beige.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,14 +625,79 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Arawacus_dolylas</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arawacus_dolylas</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arawacus dolylas réside à Panama, en Colombie, en Bolivie, au Venezuela, au Brésil, au Surinam et en Guyane[1],[2],[3].
-Protection
-Pas de statut de protection particulier.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arawacus dolylas réside à Panama, en Colombie, en Bolivie, au Venezuela, au Brésil, au Surinam et en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Arawacus_dolylas</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arawacus_dolylas</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Arawacus dolylas, sur Wikimedia CommonsArawacus dolylas, sur Wikispecies
 </t>
